--- a/2.xlsx
+++ b/2.xlsx
@@ -1,34 +1,305 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learing\2021\719\Python\Terminal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26447AF1-5459-46BD-9B32-49CC782563D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-3390" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet Of Records" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet Of Records" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="85">
+  <si>
+    <t>检测员</t>
+  </si>
+  <si>
+    <t>检测时间</t>
+  </si>
+  <si>
+    <t>漏电流(μA)</t>
+  </si>
+  <si>
+    <t>工作电流(μA)</t>
+  </si>
+  <si>
+    <t>ID核对</t>
+  </si>
+  <si>
+    <t>在线检测</t>
+  </si>
+  <si>
+    <t>被测选发</t>
+  </si>
+  <si>
+    <t>电流(mA)</t>
+  </si>
+  <si>
+    <t>电压(V)</t>
+  </si>
+  <si>
+    <t>电流判断</t>
+  </si>
+  <si>
+    <t>内置选发</t>
+  </si>
+  <si>
+    <t>结论</t>
+  </si>
+  <si>
+    <t>俩黎明</t>
+  </si>
+  <si>
+    <t>2021-06-25 12:19:52</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>在线</t>
+  </si>
+  <si>
+    <t>65536</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>73.2</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>62248</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>71.3</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>李爱明</t>
+  </si>
+  <si>
+    <t>2021-06-25 21:49:07</t>
+  </si>
+  <si>
+    <t>92.5</t>
+  </si>
+  <si>
+    <t>33333</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>71.6</t>
+  </si>
+  <si>
+    <t>70.7</t>
+  </si>
+  <si>
+    <t>2021-06-25 21:06:51</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>1045.0</t>
+  </si>
+  <si>
+    <t>22222</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>2021-06-25 21:02:23</t>
+  </si>
+  <si>
+    <t>92.8</t>
+  </si>
+  <si>
+    <t>1037.0</t>
+  </si>
+  <si>
+    <t>62246</t>
+  </si>
+  <si>
+    <t>71.4</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>71.1</t>
+  </si>
+  <si>
+    <t>2021-06-25 21:04:44</t>
+  </si>
+  <si>
+    <t>1032.9</t>
+  </si>
+  <si>
+    <t>66666</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>2021-06-25 21:07:27</t>
+  </si>
+  <si>
+    <t>1046.0</t>
+  </si>
+  <si>
+    <t>46987</t>
+  </si>
+  <si>
+    <t>72.1</t>
+  </si>
+  <si>
+    <t>2021-06-25 21:08:57</t>
+  </si>
+  <si>
+    <t>1050.0</t>
+  </si>
+  <si>
+    <t>68714</t>
+  </si>
+  <si>
+    <t>71.8</t>
+  </si>
+  <si>
+    <t>2021-06-25 21:09:34</t>
+  </si>
+  <si>
+    <t>1035.0</t>
+  </si>
+  <si>
+    <t>17154</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>2021-06-25 21:10:14</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>1051.0</t>
+  </si>
+  <si>
+    <t>3681A</t>
+  </si>
+  <si>
+    <t>2021-06-25 21:10:51</t>
+  </si>
+  <si>
+    <t>1052.0</t>
+  </si>
+  <si>
+    <t>87146</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>2021-06-25 21:42:42</t>
+  </si>
+  <si>
+    <t>33622</t>
+  </si>
+  <si>
+    <t>2021-06-25 21:43:31</t>
+  </si>
+  <si>
+    <t>64445</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>70.5</t>
+  </si>
+  <si>
+    <t>2021-06-25 21:49:46</t>
+  </si>
+  <si>
+    <t>92.6</t>
+  </si>
+  <si>
+    <t>69179</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>2021-06-25 21:53:35</t>
+  </si>
+  <si>
+    <t>36844</t>
+  </si>
+  <si>
+    <t>2021-06-25 22:13:08</t>
+  </si>
+  <si>
+    <t>92.4</t>
+  </si>
+  <si>
+    <t>63471</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +317,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,175 +623,778 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor rgb="001072BA"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <tabColor rgb="FF1072BA"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>检测员</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>检测时间</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>漏电流(μA)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>工作电流(μA)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>ID核对</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>在线检测</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>被测选发</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>电流(mA)</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>电压(V)</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>电流判断</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>内置选发</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>电流(mA)</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>电压(V)</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>电流判断</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>结论</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>俩黎明</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-06-25 12:19:52</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>在线</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>65536</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>442</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>62248</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>71.3</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>